--- a/inst/extdata/KOSIS_인구데이터.xlsx
+++ b/inst/extdata/KOSIS_인구데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\swc\bitData\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEC9B47-4FC8-40F2-B238-7F1C0E86DBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B96B2-8C16-401A-9FCF-804FEB22B8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23205" yWindow="1110" windowWidth="18285" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>○ 통계표URL</t>
   </si>
   <si>
-    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1BPA002&amp;conn_path=I3</t>
-  </si>
-  <si>
     <t>* KOSIS 개편 시 통계표 URL은 달라질 수 있음</t>
   </si>
   <si>
@@ -286,38 +283,43 @@
     <t>2022.09.01 22:41</t>
   </si>
   <si>
+    <t>○ 단위</t>
+  </si>
+  <si>
+    <t>명, 건</t>
+  </si>
+  <si>
+    <t>○ 출생, 사망은 발생월별, 혼인, 이혼은 신고월별 건수임</t>
+  </si>
+  <si>
+    <t>○ 통계표에 수록된 잠정자료는 반올림한 값으로, 전체 수치의 합이 일치하지 않을 수 있음</t>
+  </si>
+  <si>
+    <t>○ 혼인, 이혼은 다음해 3월 말, 출생은 다음해 8월 말, 사망은 다음해 9월 말에 확정수치 공표</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                           </t>
+  </si>
+  <si>
+    <t>행정구역별 &gt; 전국</t>
+  </si>
+  <si>
+    <t>혼인, 이혼은 전국 건수에 국외 포함</t>
+  </si>
+  <si>
+    <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1BPA002&amp;conn_path=I3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://kosis.kr/statHtml/statHtml.do?orgId=101&amp;tblId=DT_1B8000G&amp;conn_path=I3</t>
-  </si>
-  <si>
-    <t>○ 단위</t>
-  </si>
-  <si>
-    <t>명, 건</t>
-  </si>
-  <si>
-    <t>○ 출생, 사망은 발생월별, 혼인, 이혼은 신고월별 건수임</t>
-  </si>
-  <si>
-    <t>○ 통계표에 수록된 잠정자료는 반올림한 값으로, 전체 수치의 합이 일치하지 않을 수 있음</t>
-  </si>
-  <si>
-    <t>○ 혼인, 이혼은 다음해 3월 말, 출생은 다음해 8월 말, 사망은 다음해 9월 말에 확정수치 공표</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                           </t>
-  </si>
-  <si>
-    <t>행정구역별 &gt; 전국</t>
-  </si>
-  <si>
-    <t>혼인, 이혼은 전국 건수에 국외 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -339,6 +341,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,12 +403,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,9 +436,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -756,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -776,7 +793,7 @@
         <v>867409</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -790,7 +807,7 @@
         <v>848312</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1350,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1404,8 +1421,8 @@
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
+      <c r="B6" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1413,20 +1430,20 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -1440,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -1454,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1468,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1482,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -1496,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -1510,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -1536,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -1550,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -1564,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -1578,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -1592,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1606,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1620,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -1634,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1648,11 +1665,14 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{A137B4F6-89DD-4E91-8A2E-43E71A458EEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1662,7 +1682,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1676,7 +1696,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1684,7 +1704,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1692,7 +1712,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1700,7 +1720,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1708,15 +1728,15 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
+      <c r="B6" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -1724,28 +1744,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1765,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1779,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
@@ -1793,19 +1813,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{F27522C0-F441-4007-BF35-8C52AFD3D8EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>